--- a/dataARVIbycountry.xlsx
+++ b/dataARVIbycountry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\GR_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D6488B-F256-4292-A130-C0FCF9BC3005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D8BF5B-833A-494D-962C-860CA9F11257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F714604C-4A2F-4B82-B7EF-5685759088F0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>CH</t>
+    <t>CN</t>
   </si>
 </sst>
 </file>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D2995D-3203-4BC7-A1B6-35BE81E95A9C}">
   <dimension ref="A1:I426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I426"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
